--- a/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8210</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2327</v>
+        <v>2365</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21576</v>
+        <v>22644</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02054519090531859</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005823221892430243</v>
+        <v>0.005917184131454757</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05399462981829168</v>
+        <v>0.05666691954487577</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -762,19 +762,19 @@
         <v>29277</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17608</v>
+        <v>17460</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47844</v>
+        <v>47725</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08114533699244299</v>
+        <v>0.08114533699244302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04880247936584669</v>
+        <v>0.04839362077124233</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1326076980466464</v>
+        <v>0.1322756296396715</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>37487</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22776</v>
+        <v>21252</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57453</v>
+        <v>58294</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04929890258115117</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02995320168687266</v>
+        <v>0.02794869330449994</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07555671803059182</v>
+        <v>0.07666150086061123</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>391394</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>378028</v>
+        <v>376960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>397277</v>
+        <v>397239</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9794548090946814</v>
+        <v>0.9794548090946813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9460053701817083</v>
+        <v>0.9433330804551241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9941767781075698</v>
+        <v>0.9940828158685451</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>189</v>
@@ -833,19 +833,19 @@
         <v>331520</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>312953</v>
+        <v>313072</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>343189</v>
+        <v>343337</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.918854663007557</v>
+        <v>0.9188546630075571</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8673923019533535</v>
+        <v>0.8677243703603286</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9511975206341533</v>
+        <v>0.9516063792287576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>356</v>
@@ -854,19 +854,19 @@
         <v>722915</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>702949</v>
+        <v>702108</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>737626</v>
+        <v>739150</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9507010974188488</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9244432819694083</v>
+        <v>0.9233384991393886</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9700467983131273</v>
+        <v>0.9720513066955001</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>29117</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17622</v>
+        <v>17832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41972</v>
+        <v>43858</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06124863940183463</v>
+        <v>0.06124863940183464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03706837649832963</v>
+        <v>0.03750949960895859</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08828877739860856</v>
+        <v>0.0922559723702487</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -979,19 +979,19 @@
         <v>33985</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23622</v>
+        <v>24175</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47836</v>
+        <v>48976</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06838268125702318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04753088017692159</v>
+        <v>0.04864375064727482</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09625225220478394</v>
+        <v>0.09854782008104787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -1000,19 +1000,19 @@
         <v>63102</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47128</v>
+        <v>46861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84114</v>
+        <v>83398</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06489484223617235</v>
+        <v>0.06489484223617234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04846672843935493</v>
+        <v>0.04819193087699399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08650365378499822</v>
+        <v>0.0857665454652551</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>446280</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>433425</v>
+        <v>431539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>457775</v>
+        <v>457565</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9387513605981652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9117112226013914</v>
+        <v>0.9077440276297513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9629316235016704</v>
+        <v>0.9624905003910412</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>424</v>
@@ -1050,19 +1050,19 @@
         <v>462997</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>449146</v>
+        <v>448006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>473360</v>
+        <v>472807</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9316173187429767</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9037477477952162</v>
+        <v>0.9014521799189527</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9524691198230786</v>
+        <v>0.9513562493527251</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>705</v>
@@ -1071,19 +1071,19 @@
         <v>909277</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>888265</v>
+        <v>888981</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>925251</v>
+        <v>925518</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9351051577638277</v>
+        <v>0.9351051577638276</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9134963462150019</v>
+        <v>0.9142334545347452</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9515332715606452</v>
+        <v>0.9518080691230063</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>49246</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35827</v>
+        <v>36048</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64095</v>
+        <v>64912</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07990691167956467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05813422659000578</v>
+        <v>0.05849205655694763</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1040017628992631</v>
+        <v>0.1053279173469062</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1196,19 +1196,19 @@
         <v>49612</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39405</v>
+        <v>38847</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60624</v>
+        <v>60945</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08035133748648565</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06382019667708923</v>
+        <v>0.06291653046164623</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09818552747382672</v>
+        <v>0.09870496440478496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -1217,19 +1217,19 @@
         <v>98858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82712</v>
+        <v>82353</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120606</v>
+        <v>117490</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08012933318528749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06704248725344901</v>
+        <v>0.06675136147207732</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09775690363567539</v>
+        <v>0.09523186564133401</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>567040</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>552191</v>
+        <v>551374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>580459</v>
+        <v>580238</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9200930883204351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.895998237100737</v>
+        <v>0.8946720826530938</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9418657734099941</v>
+        <v>0.9415079434430523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>765</v>
@@ -1267,19 +1267,19 @@
         <v>567832</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>556820</v>
+        <v>556499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>578039</v>
+        <v>578597</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9196486625135144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9018144725261731</v>
+        <v>0.9012950355952152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9361798033229107</v>
+        <v>0.9370834695383538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1261</v>
@@ -1288,19 +1288,19 @@
         <v>1134872</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1113124</v>
+        <v>1116240</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1151018</v>
+        <v>1151377</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9198706668147124</v>
+        <v>0.9198706668147125</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9022430963643246</v>
+        <v>0.9047681343586658</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9329575127465509</v>
+        <v>0.9332486385279227</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>70003</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56286</v>
+        <v>55858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87003</v>
+        <v>88592</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1011861917781954</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08135931394943861</v>
+        <v>0.08073992042837169</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1257587336384655</v>
+        <v>0.1280562836023816</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>140</v>
@@ -1413,19 +1413,19 @@
         <v>87457</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74545</v>
+        <v>74044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101642</v>
+        <v>101280</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1209003886683654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1030506970952932</v>
+        <v>0.1023584193449356</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1405090832781632</v>
+        <v>0.1400083078407301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -1434,19 +1434,19 @@
         <v>157460</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136695</v>
+        <v>137103</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179870</v>
+        <v>178524</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1112631048596742</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09659038609977745</v>
+        <v>0.09687839217742987</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1270977555250934</v>
+        <v>0.1261466768232583</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>621821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>604821</v>
+        <v>603232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>635538</v>
+        <v>635966</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8988138082218046</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8742412663615343</v>
+        <v>0.8719437163976183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9186406860505609</v>
+        <v>0.9192600795716285</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>982</v>
@@ -1484,19 +1484,19 @@
         <v>635927</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>621742</v>
+        <v>622104</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>648839</v>
+        <v>649340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8790996113316346</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8594909167218369</v>
+        <v>0.8599916921592698</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8969493029047066</v>
+        <v>0.8976415806550643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1567</v>
@@ -1505,19 +1505,19 @@
         <v>1257748</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1235338</v>
+        <v>1236684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1278513</v>
+        <v>1278105</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8887368951403257</v>
+        <v>0.8887368951403258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8729022444749067</v>
+        <v>0.8738533231767418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9034096139002231</v>
+        <v>0.9031216078225704</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>90826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74694</v>
+        <v>75338</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>107841</v>
+        <v>106942</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1511960885034723</v>
+        <v>0.1511960885034724</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1243419654990349</v>
+        <v>0.1254140066940136</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1795200449867054</v>
+        <v>0.1780244555903537</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>187</v>
@@ -1630,19 +1630,19 @@
         <v>110434</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96831</v>
+        <v>96225</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>125847</v>
+        <v>124594</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1856587472199552</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1627903799587647</v>
+        <v>0.1617708286693444</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2115708459686514</v>
+        <v>0.2094642495426634</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>296</v>
@@ -1651,19 +1651,19 @@
         <v>201260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>180017</v>
+        <v>179604</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>222716</v>
+        <v>223597</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.168342430738768</v>
+        <v>0.1683424307387681</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1505742609272621</v>
+        <v>0.1502288395150914</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1862895595807945</v>
+        <v>0.1870266081783773</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>509891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>492876</v>
+        <v>493775</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>526023</v>
+        <v>525379</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8488039114965276</v>
+        <v>0.8488039114965278</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8204799550132947</v>
+        <v>0.8219755444096462</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8756580345009654</v>
+        <v>0.8745859933059864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>794</v>
@@ -1701,19 +1701,19 @@
         <v>484386</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>468973</v>
+        <v>470226</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>497989</v>
+        <v>498595</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8143412527800449</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7884291540313484</v>
+        <v>0.7905357504573366</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8372096200412353</v>
+        <v>0.8382291713306554</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1341</v>
@@ -1722,19 +1722,19 @@
         <v>994277</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>972821</v>
+        <v>971940</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1015520</v>
+        <v>1015933</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.831657569261232</v>
+        <v>0.8316575692612321</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8137104404192056</v>
+        <v>0.8129733918216231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8494257390727381</v>
+        <v>0.8497711604849087</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>50214</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39330</v>
+        <v>40388</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60946</v>
+        <v>61470</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1252836030843119</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09812782375127452</v>
+        <v>0.1007657604160984</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.152058011576087</v>
+        <v>0.1533662035683383</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>155</v>
@@ -1847,19 +1847,19 @@
         <v>80170</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69690</v>
+        <v>69438</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91578</v>
+        <v>91185</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1856193649976554</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1613548500230097</v>
+        <v>0.1607713318550501</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2120337674266292</v>
+        <v>0.2111238218212909</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>232</v>
@@ -1868,19 +1868,19 @@
         <v>130384</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115669</v>
+        <v>115131</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>145684</v>
+        <v>147660</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1565781300694996</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1389066264959986</v>
+        <v>0.1382602703115444</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1749512631193337</v>
+        <v>0.1773249600522789</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>350592</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>339860</v>
+        <v>339336</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>361476</v>
+        <v>360418</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8747163969156881</v>
+        <v>0.874716396915688</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8479419884239129</v>
+        <v>0.8466337964316617</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9018721762487255</v>
+        <v>0.8992342395839016</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>658</v>
@@ -1918,19 +1918,19 @@
         <v>351734</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>340326</v>
+        <v>340719</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>362214</v>
+        <v>362466</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8143806350023446</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7879662325733708</v>
+        <v>0.7888761781787091</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8386451499769901</v>
+        <v>0.8392286681449499</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1143</v>
@@ -1939,19 +1939,19 @@
         <v>702326</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>687026</v>
+        <v>685050</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>717041</v>
+        <v>717579</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8434218699305005</v>
+        <v>0.8434218699305004</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.825048736880666</v>
+        <v>0.8226750399477212</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8610933735040015</v>
+        <v>0.8617397296884558</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>58295</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>48088</v>
+        <v>47792</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69723</v>
+        <v>69523</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1950539203321741</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1609003500101895</v>
+        <v>0.1599122620651366</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2332919517621893</v>
+        <v>0.2326223419039009</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>303</v>
@@ -2064,19 +2064,19 @@
         <v>150597</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>137266</v>
+        <v>137185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166537</v>
+        <v>166457</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.338197478562127</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.308260581222301</v>
+        <v>0.3080776941332528</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3739954374640459</v>
+        <v>0.3738147541147677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>400</v>
@@ -2085,19 +2085,19 @@
         <v>208892</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191805</v>
+        <v>191500</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>229156</v>
+        <v>230533</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2807086385883608</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2577470517662985</v>
+        <v>0.2573377360625045</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3079397526399507</v>
+        <v>0.3097908261450281</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>240571</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>229143</v>
+        <v>229343</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250778</v>
+        <v>251074</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8049460796678261</v>
+        <v>0.8049460796678259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7667080482378106</v>
+        <v>0.767377658096099</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8390996499898106</v>
+        <v>0.8400877379348636</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>538</v>
@@ -2135,19 +2135,19 @@
         <v>294695</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>278755</v>
+        <v>278835</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>308026</v>
+        <v>308107</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6618025214378729</v>
+        <v>0.661802521437873</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6260045625359539</v>
+        <v>0.6261852458852324</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6917394187776992</v>
+        <v>0.6919223058667472</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>883</v>
@@ -2156,19 +2156,19 @@
         <v>535266</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>515002</v>
+        <v>513625</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>552353</v>
+        <v>552658</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7192913614116392</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6920602473600492</v>
+        <v>0.6902091738549717</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7422529482337016</v>
+        <v>0.7426622639374952</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>355911</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>320293</v>
+        <v>324872</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>395844</v>
+        <v>394270</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1021706220805332</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09194559555463047</v>
+        <v>0.09326011257788132</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1136340313038072</v>
+        <v>0.1131820528511616</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>909</v>
@@ -2281,19 +2281,19 @@
         <v>541532</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>506324</v>
+        <v>505775</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>577699</v>
+        <v>582120</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1475312675094848</v>
+        <v>0.1475312675094847</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1379396183898319</v>
+        <v>0.1377898445649172</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1573843814129733</v>
+        <v>0.158588840036393</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1334</v>
@@ -2302,19 +2302,19 @@
         <v>897443</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>850876</v>
+        <v>852549</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>945081</v>
+        <v>951765</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1254441700403704</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1189350111770999</v>
+        <v>0.1191688562675132</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1321030025201212</v>
+        <v>0.133037194885832</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3127590</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3087657</v>
+        <v>3089231</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3163208</v>
+        <v>3158629</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8978293779194668</v>
+        <v>0.8978293779194669</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8863659686961921</v>
+        <v>0.8868179471488384</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9080544044453694</v>
+        <v>0.9067398874221186</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4350</v>
@@ -2352,19 +2352,19 @@
         <v>3129091</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3092924</v>
+        <v>3088503</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3164299</v>
+        <v>3164848</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8524687324905154</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8426156185870264</v>
+        <v>0.8414111599636072</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8620603816101681</v>
+        <v>0.8622101554350825</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7256</v>
@@ -2373,19 +2373,19 @@
         <v>6256681</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6209043</v>
+        <v>6202359</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6303248</v>
+        <v>6301575</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8745558299596297</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8678969974798788</v>
+        <v>0.866962805114168</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8810649888229002</v>
+        <v>0.8808311437324868</v>
       </c>
     </row>
     <row r="27">
